--- a/7/1/1/2/PIB total 2013 a 2021 - Trimestral.xlsx
+++ b/7/1/1/2/PIB total 2013 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Serie</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,7 +516,7 @@
         <v>33191</v>
       </c>
       <c r="D2">
-        <v>33929</v>
+        <v>33924</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -527,7 +530,7 @@
         <v>34830</v>
       </c>
       <c r="D3">
-        <v>34436</v>
+        <v>34448</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -541,7 +544,7 @@
         <v>33419</v>
       </c>
       <c r="D4">
-        <v>34750</v>
+        <v>34742</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -555,7 +558,7 @@
         <v>36437</v>
       </c>
       <c r="D5">
-        <v>34824</v>
+        <v>34815</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -569,7 +572,7 @@
         <v>34130</v>
       </c>
       <c r="D6">
-        <v>34873</v>
+        <v>34867</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -583,7 +586,7 @@
         <v>35338</v>
       </c>
       <c r="D7">
-        <v>35017</v>
+        <v>35031</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -597,7 +600,7 @@
         <v>33757</v>
       </c>
       <c r="D8">
-        <v>35013</v>
+        <v>35002</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -611,7 +614,7 @@
         <v>37087</v>
       </c>
       <c r="D9">
-        <v>35415</v>
+        <v>35406</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -625,7 +628,7 @@
         <v>34905</v>
       </c>
       <c r="D10">
-        <v>35505</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -639,7 +642,7 @@
         <v>36189</v>
       </c>
       <c r="D11">
-        <v>35948</v>
+        <v>35965</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -653,7 +656,7 @@
         <v>34530</v>
       </c>
       <c r="D12">
-        <v>35843</v>
+        <v>35830</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -667,7 +670,7 @@
         <v>37921</v>
       </c>
       <c r="D13">
-        <v>36192</v>
+        <v>36180</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -681,7 +684,7 @@
         <v>35941</v>
       </c>
       <c r="D14">
-        <v>36424</v>
+        <v>36418</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -695,7 +698,7 @@
         <v>36647</v>
       </c>
       <c r="D15">
-        <v>36320</v>
+        <v>36341</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -709,7 +712,7 @@
         <v>35144</v>
       </c>
       <c r="D16">
-        <v>36492</v>
+        <v>36473</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -723,7 +726,7 @@
         <v>38268</v>
       </c>
       <c r="D17">
-        <v>36580</v>
+        <v>36569</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -737,7 +740,7 @@
         <v>35802</v>
       </c>
       <c r="D18">
-        <v>36270</v>
+        <v>36268</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -751,7 +754,7 @@
         <v>36797</v>
       </c>
       <c r="D19">
-        <v>36624</v>
+        <v>36646</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -765,7 +768,7 @@
         <v>35813</v>
       </c>
       <c r="D20">
-        <v>37325</v>
+        <v>37303</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -779,7 +782,7 @@
         <v>39318</v>
       </c>
       <c r="D21">
-        <v>37648</v>
+        <v>37635</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -793,7 +796,7 @@
         <v>37401</v>
       </c>
       <c r="D22">
-        <v>38050</v>
+        <v>38055</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -807,7 +810,7 @@
         <v>38608</v>
       </c>
       <c r="D23">
-        <v>38369</v>
+        <v>38386</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -821,7 +824,7 @@
         <v>36672</v>
       </c>
       <c r="D24">
-        <v>38300</v>
+        <v>38272</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -835,7 +838,7 @@
         <v>40536</v>
       </c>
       <c r="D25">
-        <v>38716</v>
+        <v>38706</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -849,7 +852,7 @@
         <v>37818</v>
       </c>
       <c r="D26">
-        <v>38588</v>
+        <v>38599</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -863,7 +866,7 @@
         <v>39177</v>
       </c>
       <c r="D27">
-        <v>38999</v>
+        <v>39019</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -877,7 +880,7 @@
         <v>37920</v>
       </c>
       <c r="D28">
-        <v>39367</v>
+        <v>39331</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -891,7 +894,7 @@
         <v>39745</v>
       </c>
       <c r="D29">
-        <v>37826</v>
+        <v>37818</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -905,7 +908,7 @@
         <v>37884</v>
       </c>
       <c r="D30">
-        <v>38541</v>
+        <v>38552</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -919,7 +922,7 @@
         <v>33595</v>
       </c>
       <c r="D31">
-        <v>33656</v>
+        <v>33665</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -933,7 +936,7 @@
         <v>34507</v>
       </c>
       <c r="D32">
-        <v>35528</v>
+        <v>35493</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -947,7 +950,7 @@
         <v>39747</v>
       </c>
       <c r="D33">
-        <v>37792</v>
+        <v>37788</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -955,13 +958,27 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>56205</v>
+        <v>56433</v>
       </c>
       <c r="C34">
-        <v>38012</v>
+        <v>38076</v>
       </c>
       <c r="D34">
-        <v>38998</v>
+        <v>39060</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>57427</v>
+      </c>
+      <c r="C35">
+        <v>39677</v>
+      </c>
+      <c r="D35">
+        <v>39460</v>
       </c>
     </row>
   </sheetData>
